--- a/reports/quarterly_report_202409.xlsx
+++ b/reports/quarterly_report_202409.xlsx
@@ -710,21 +710,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -1148,21 +1133,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -1579,21 +1549,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -2007,21 +1962,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -3309,7 +3249,7 @@
       </c>
       <c r="C4" s="22" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="E4" s="12" t="n"/>
@@ -3380,7 +3320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
@@ -3439,159 +3379,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phenomenology and Practice</t>
+          <t>The Journal of Hebrew Scriptures</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219</v>
+        <v>1145</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>3721</v>
+        <v>12466</v>
       </c>
       <c r="E3" t="n">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Alternative Francophone</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>221</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2260</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Annals of Social Studies Education Research for Teachers</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>648</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Blue Jay</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5767</v>
-      </c>
-      <c r="C6" t="n">
-        <v>321</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20208</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5322</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Canadian Journal Of Emergency Nursing</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>364</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2790</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Family and Youth</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>629</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8167</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9127</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Learning and Technology</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C9" t="n">
-        <v>169</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14084</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11988</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Nonprofit and Social Economy Research</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>275</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4726</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3645</v>
+        <v>4868</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
